--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/DTO/DTOのクラス仕様書(ItemsDTO) .xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/DTO/DTOのクラス仕様書(ItemsDTO) .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD8D04-F9A9-4F58-BE72-66D635869A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD5465-02CB-4446-B09D-64A62E99EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -155,35 +155,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CategoriesDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recommended</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -245,9 +221,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>各フィールドに対してgetterメソッド、setterメソッドを用意する。
 以下itemIdと同様に作成する。
-itemName、manufacturer、color、stock、category、recommended</t>
+itemName、manufacturer、categoryId,color、price,stock、recommended</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
     </rPh>
@@ -340,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -617,13 +625,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,23 +805,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,29 +859,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,6 +870,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1192,83 +1241,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="50" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="55">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="62">
         <v>45000</v>
       </c>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1468,82 +1517,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="50" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51" t="str">
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="60" t="str">
         <f>G5</f>
         <v>ItemsDTO</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="51" t="s">
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="55">
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62">
         <v>45560</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1743,239 +1792,239 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="64"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="57"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="62" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="63"/>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="64"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="57"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="62" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="60" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="61" t="s">
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65"/>
       <c r="Y8" s="48"/>
       <c r="Z8" s="48"/>
       <c r="AA8" s="48"/>
@@ -2015,34 +2064,34 @@
       <c r="BI8" s="48"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
-        <v>36</v>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50" t="s">
+        <v>33</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="54"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="59"/>
       <c r="Y9" s="48"/>
       <c r="Z9" s="48"/>
       <c r="AA9" s="48"/>
@@ -2082,34 +2131,34 @@
       <c r="BI9" s="48"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53" t="s">
-        <v>37</v>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50" t="s">
+        <v>34</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="54"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="59"/>
       <c r="Y10" s="48"/>
       <c r="Z10" s="48"/>
       <c r="AA10" s="48"/>
@@ -2149,34 +2198,34 @@
       <c r="BI10" s="48"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53" t="s">
-        <v>37</v>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50" t="s">
+        <v>34</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="54"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="59"/>
       <c r="Y11" s="48"/>
       <c r="Z11" s="48"/>
       <c r="AA11" s="48"/>
@@ -2216,34 +2265,34 @@
       <c r="BI11" s="48"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>33</v>
+      <c r="A12" s="58" t="s">
+        <v>50</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53" t="s">
-        <v>37</v>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50" t="s">
+        <v>47</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="54"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="59"/>
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
       <c r="AA12" s="48"/>
@@ -2283,34 +2332,34 @@
       <c r="BI12" s="48"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>34</v>
+      <c r="A13" s="58" t="s">
+        <v>48</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53" t="s">
-        <v>36</v>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50" t="s">
+        <v>49</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="54"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="59"/>
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="48"/>
@@ -2350,34 +2399,34 @@
       <c r="BI13" s="48"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
-        <v>35</v>
+      <c r="A14" s="74" t="s">
+        <v>53</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53" t="s">
-        <v>38</v>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="71" t="s">
+        <v>47</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="54"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
       <c r="Y14" s="48"/>
       <c r="Z14" s="48"/>
       <c r="AA14" s="48"/>
@@ -2417,34 +2466,34 @@
       <c r="BI14" s="48"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>39</v>
+      <c r="A15" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53" t="s">
-        <v>40</v>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50" t="s">
+        <v>47</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="54"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="59"/>
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
       <c r="AA15" s="48"/>
@@ -2484,30 +2533,34 @@
       <c r="BI15" s="48"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="67"/>
+      <c r="A16" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="54"/>
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
@@ -2547,471 +2600,462 @@
       <c r="BI16" s="48"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="60"/>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BG18" s="60"/>
-      <c r="BH18" s="60"/>
-      <c r="BI18" s="60"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
-        <v>52</v>
+      <c r="A19" s="49" t="s">
+        <v>54</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BB19" s="53"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="53"/>
-      <c r="BG19" s="53"/>
-      <c r="BH19" s="53"/>
-      <c r="BI19" s="53"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="53"/>
-      <c r="BI21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="50"/>
+      <c r="BF21" s="50"/>
+      <c r="BG21" s="50"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
     </row>
     <row r="23" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="53"/>
-      <c r="BI23" s="53"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
     </row>
     <row r="24" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="53"/>
-      <c r="BI24" s="53"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A19:BI24"/>
-    <mergeCell ref="A18:BI18"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:X14"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="Q12:X12"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:X10"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="AE1:AP1"/>
@@ -3028,16 +3072,25 @@
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="G6:AE6"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="A19:BI24"/>
+    <mergeCell ref="A18:BI18"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:X14"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q12:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3052,7 +3105,7 @@
   <dimension ref="A1:IX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3061,87 +3114,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="str">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="60" t="str">
         <f>クラス仕様!R1</f>
         <v>ショッピング</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="50" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="60">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="55">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="62">
         <v>45000</v>
       </c>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3341,82 +3394,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="50" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51" t="str">
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="60" t="str">
         <f>クラス仕様!G5</f>
         <v>ItemsDTO</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="51" t="s">
-        <v>50</v>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="60" t="s">
+        <v>44</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="55">
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62">
         <v>45561</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3616,71 +3669,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61" t="s">
-        <v>43</v>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3880,71 +3933,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61" t="s">
-        <v>46</v>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49" t="s">
+        <v>40</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4673,12 +4726,12 @@
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -4692,7 +4745,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="69"/>
@@ -5198,67 +5251,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5458,67 +5511,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -6520,7 +6573,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="8"/>
       <c r="P15" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="9"/>
@@ -6552,7 +6605,7 @@
       <c r="AR15" s="9"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
@@ -11869,29 +11922,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -11908,11 +11943,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
@@ -11934,7 +11987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -11944,87 +11997,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51" t="str">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="60" t="str">
         <f>クラス仕様!R1</f>
         <v>ショッピング</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="50" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="60">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="55">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="62">
         <v>45000</v>
       </c>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12224,82 +12277,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="50" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51" t="str">
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="60" t="str">
         <f>クラス仕様!G5</f>
         <v>ItemsDTO</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="51" t="s">
-        <v>50</v>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="60" t="s">
+        <v>44</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="55">
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62">
         <v>45561</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -12499,71 +12552,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61" t="s">
-        <v>44</v>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49" t="s">
+        <v>38</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -12763,71 +12816,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61" t="s">
-        <v>45</v>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49" t="s">
+        <v>39</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13561,7 +13614,7 @@
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -13575,7 +13628,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="69"/>
@@ -13822,7 +13875,7 @@
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -13854,7 +13907,7 @@
       <c r="AC9" s="69"/>
       <c r="AD9" s="69"/>
       <c r="AE9" s="69" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF9" s="69"/>
       <c r="AG9" s="69"/>
@@ -14085,67 +14138,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -14345,67 +14398,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -15392,7 +15445,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -15409,7 +15462,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="8"/>
       <c r="P15" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="9"/>
@@ -20756,29 +20809,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -20795,11 +20830,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
@@ -20818,12 +20871,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20959,15 +21009,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20991,10 +21045,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>